--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2127,28 +2127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.1655161588973</v>
+        <v>167.0739570918576</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.6792723031845</v>
+        <v>228.5979588757592</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.2488294728971</v>
+        <v>206.7808905199729</v>
       </c>
       <c r="AD2" t="n">
-        <v>118165.5161588973</v>
+        <v>167073.9570918576</v>
       </c>
       <c r="AE2" t="n">
-        <v>161679.2723031845</v>
+        <v>228597.9588757592</v>
       </c>
       <c r="AF2" t="n">
         <v>1.826070257119837e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.59375</v>
       </c>
       <c r="AH2" t="n">
-        <v>146248.8294728971</v>
+        <v>206780.8905199729</v>
       </c>
     </row>
     <row r="3">
@@ -2233,28 +2233,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.24594513636178</v>
+        <v>113.544189139702</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.2690188043137</v>
+        <v>155.3561687969657</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.2679054307438</v>
+        <v>140.5291940907782</v>
       </c>
       <c r="AD3" t="n">
-        <v>84245.94513636178</v>
+        <v>113544.189139702</v>
       </c>
       <c r="AE3" t="n">
-        <v>115269.0188043137</v>
+        <v>155356.1687969657</v>
       </c>
       <c r="AF3" t="n">
         <v>2.594796028629622e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.048177083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>104267.9054307438</v>
+        <v>140529.1940907782</v>
       </c>
     </row>
     <row r="4">
@@ -2339,28 +2339,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>71.50850337694304</v>
+        <v>100.7725819615025</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.84108905281475</v>
+        <v>137.881492412219</v>
       </c>
       <c r="AC4" t="n">
-        <v>88.5032728344693</v>
+        <v>124.7222762943238</v>
       </c>
       <c r="AD4" t="n">
-        <v>71508.50337694304</v>
+        <v>100772.5819615025</v>
       </c>
       <c r="AE4" t="n">
-        <v>97841.08905281476</v>
+        <v>137881.492412219</v>
       </c>
       <c r="AF4" t="n">
         <v>2.855714867813315e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.494791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>88503.2728344693</v>
+        <v>124722.2762943238</v>
       </c>
     </row>
     <row r="5">
@@ -2445,28 +2445,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>69.89345754398531</v>
+        <v>89.43734569575813</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.63131209336956</v>
+        <v>122.3721220781049</v>
       </c>
       <c r="AC5" t="n">
-        <v>86.50439388659143</v>
+        <v>110.6930984973546</v>
       </c>
       <c r="AD5" t="n">
-        <v>69893.45754398531</v>
+        <v>89437.34569575812</v>
       </c>
       <c r="AE5" t="n">
-        <v>95631.31209336956</v>
+        <v>122372.1220781049</v>
       </c>
       <c r="AF5" t="n">
         <v>3.001808202882443e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.227864583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>86504.39388659142</v>
+        <v>110693.0984973546</v>
       </c>
     </row>
     <row r="6">
@@ -2551,28 +2551,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>69.92040434440203</v>
+        <v>89.46429249617486</v>
       </c>
       <c r="AB6" t="n">
-        <v>95.66818189450865</v>
+        <v>122.408991879244</v>
       </c>
       <c r="AC6" t="n">
-        <v>86.53774488565689</v>
+        <v>110.7264494964201</v>
       </c>
       <c r="AD6" t="n">
-        <v>69920.40434440204</v>
+        <v>89464.29249617486</v>
       </c>
       <c r="AE6" t="n">
-        <v>95668.18189450866</v>
+        <v>122408.991879244</v>
       </c>
       <c r="AF6" t="n">
         <v>3.002941270002617e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.227864583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>86537.7448856569</v>
+        <v>110726.4494964201</v>
       </c>
     </row>
   </sheetData>
@@ -2848,28 +2848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.19960746813918</v>
+        <v>136.8203188420859</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.3610351987777</v>
+        <v>187.2035963261209</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.5378065763395</v>
+        <v>169.3371478347063</v>
       </c>
       <c r="AD2" t="n">
-        <v>98199.60746813918</v>
+        <v>136820.3188420859</v>
       </c>
       <c r="AE2" t="n">
-        <v>134361.0351987777</v>
+        <v>187203.5963261209</v>
       </c>
       <c r="AF2" t="n">
         <v>2.353004567532021e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.298177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>121537.8065763395</v>
+        <v>169337.1478347063</v>
       </c>
     </row>
     <row r="3">
@@ -2954,28 +2954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.1622777979215</v>
+        <v>99.20392524824544</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.99912382431746</v>
+        <v>135.7351870928918</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.83710218216478</v>
+        <v>122.7808113423141</v>
       </c>
       <c r="AD3" t="n">
-        <v>70162.2777979215</v>
+        <v>99203.92524824545</v>
       </c>
       <c r="AE3" t="n">
-        <v>95999.12382431746</v>
+        <v>135735.1870928918</v>
       </c>
       <c r="AF3" t="n">
         <v>3.101016389256933e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.540364583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>86837.10218216479</v>
+        <v>122780.8113423141</v>
       </c>
     </row>
     <row r="4">
@@ -3060,28 +3060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.17508207742287</v>
+        <v>87.50302598871522</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.28015497064477</v>
+        <v>119.7255005187673</v>
       </c>
       <c r="AC4" t="n">
-        <v>84.377627899789</v>
+        <v>108.2990667850827</v>
       </c>
       <c r="AD4" t="n">
-        <v>68175.08207742288</v>
+        <v>87503.02598871522</v>
       </c>
       <c r="AE4" t="n">
-        <v>93280.15497064477</v>
+        <v>119725.5005187673</v>
       </c>
       <c r="AF4" t="n">
         <v>3.335995029731084e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.149739583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>84377.627899789</v>
+        <v>108299.0667850827</v>
       </c>
     </row>
     <row r="5">
@@ -3166,28 +3166,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>68.22760292017961</v>
+        <v>87.55554683147194</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.35201630476054</v>
+        <v>119.7973618528831</v>
       </c>
       <c r="AC5" t="n">
-        <v>84.44263088903482</v>
+        <v>108.3640697743286</v>
       </c>
       <c r="AD5" t="n">
-        <v>68227.6029201796</v>
+        <v>87555.54683147195</v>
       </c>
       <c r="AE5" t="n">
-        <v>93352.01630476055</v>
+        <v>119797.3618528831</v>
       </c>
       <c r="AF5" t="n">
         <v>3.334570597020531e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.149739583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>84442.63088903482</v>
+        <v>108364.0697743286</v>
       </c>
     </row>
   </sheetData>
@@ -3463,28 +3463,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.5146036796545</v>
+        <v>92.47956367234846</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.27172693791101</v>
+        <v>126.5346189268585</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.84719720912487</v>
+        <v>114.4583324889656</v>
       </c>
       <c r="AD2" t="n">
-        <v>64514.6036796545</v>
+        <v>92479.56367234846</v>
       </c>
       <c r="AE2" t="n">
-        <v>88271.72693791101</v>
+        <v>126534.6189268585</v>
       </c>
       <c r="AF2" t="n">
         <v>4.499810354701153e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.325520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>79847.19720912488</v>
+        <v>114458.3324889656</v>
       </c>
     </row>
     <row r="3">
@@ -3569,28 +3569,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.51684304658271</v>
+        <v>92.48180303927667</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.27479093853609</v>
+        <v>126.5376829274836</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.84996878583063</v>
+        <v>114.4611040656713</v>
       </c>
       <c r="AD3" t="n">
-        <v>64516.8430465827</v>
+        <v>92481.80303927667</v>
       </c>
       <c r="AE3" t="n">
-        <v>88274.79093853608</v>
+        <v>126537.6829274836</v>
       </c>
       <c r="AF3" t="n">
         <v>4.51347001989715e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.3125</v>
       </c>
       <c r="AH3" t="n">
-        <v>79849.96878583063</v>
+        <v>114461.1040656713</v>
       </c>
     </row>
   </sheetData>
@@ -3866,28 +3866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.11808410125383</v>
+        <v>96.56579448669012</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.20216782507711</v>
+        <v>132.1255801988186</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.30708373793867</v>
+        <v>119.515700264095</v>
       </c>
       <c r="AD2" t="n">
-        <v>68118.08410125383</v>
+        <v>96565.79448669012</v>
       </c>
       <c r="AE2" t="n">
-        <v>93202.16782507711</v>
+        <v>132125.5801988186</v>
       </c>
       <c r="AF2" t="n">
         <v>3.604958863469132e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.755208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>84307.08373793866</v>
+        <v>119515.700264095</v>
       </c>
     </row>
     <row r="3">
@@ -3972,28 +3972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.84615492183524</v>
+        <v>84.77814078986913</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.09361409135664</v>
+        <v>115.9971923762573</v>
       </c>
       <c r="AC3" t="n">
-        <v>81.49520600968093</v>
+        <v>104.9265831389793</v>
       </c>
       <c r="AD3" t="n">
-        <v>65846.15492183523</v>
+        <v>84778.14078986913</v>
       </c>
       <c r="AE3" t="n">
-        <v>90093.61409135665</v>
+        <v>115997.1923762573</v>
       </c>
       <c r="AF3" t="n">
         <v>3.995866468731125e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.1953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>81495.20600968093</v>
+        <v>104926.5831389793</v>
       </c>
     </row>
   </sheetData>
@@ -4269,28 +4269,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.66673589649319</v>
+        <v>91.42046547002434</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.11163683170363</v>
+        <v>125.0855140423243</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.79782447445686</v>
+        <v>113.1475281407794</v>
       </c>
       <c r="AD2" t="n">
-        <v>63666.73589649318</v>
+        <v>91420.46547002434</v>
       </c>
       <c r="AE2" t="n">
-        <v>87111.63683170364</v>
+        <v>125085.5140423243</v>
       </c>
       <c r="AF2" t="n">
         <v>4.919281886025362e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.579427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>78797.82447445687</v>
+        <v>113147.5281407794</v>
       </c>
     </row>
   </sheetData>
@@ -4566,28 +4566,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.415248076861</v>
+        <v>139.2509628721675</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.3925724267943</v>
+        <v>190.5293107205235</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.2800181461044</v>
+        <v>172.3454607149775</v>
       </c>
       <c r="AD2" t="n">
-        <v>100415.248076861</v>
+        <v>139250.9628721675</v>
       </c>
       <c r="AE2" t="n">
-        <v>137392.5724267943</v>
+        <v>190529.3107205234</v>
       </c>
       <c r="AF2" t="n">
         <v>2.206917400826448e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.591145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>124280.0181461044</v>
+        <v>172345.4607149775</v>
       </c>
     </row>
     <row r="3">
@@ -4672,28 +4672,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.15749886742495</v>
+        <v>100.2842849639049</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.36082919766625</v>
+        <v>137.2133829179631</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.0688483058471</v>
+        <v>124.1179302325019</v>
       </c>
       <c r="AD3" t="n">
-        <v>71157.49886742495</v>
+        <v>100284.2849639049</v>
       </c>
       <c r="AE3" t="n">
-        <v>97360.82919766624</v>
+        <v>137213.3829179631</v>
       </c>
       <c r="AF3" t="n">
         <v>2.965380353125408e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.651041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>88068.8483058471</v>
+        <v>124117.9302325019</v>
       </c>
     </row>
     <row r="4">
@@ -4778,28 +4778,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.54790337859332</v>
+        <v>87.93260638732298</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.7902655226209</v>
+        <v>120.3132713718918</v>
       </c>
       <c r="AC4" t="n">
-        <v>84.83905421662936</v>
+        <v>108.8307416129268</v>
       </c>
       <c r="AD4" t="n">
-        <v>68547.90337859331</v>
+        <v>87932.60638732297</v>
       </c>
       <c r="AE4" t="n">
-        <v>93790.2655226209</v>
+        <v>120313.2713718918</v>
       </c>
       <c r="AF4" t="n">
         <v>3.25460790215073e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.149739583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>84839.05421662936</v>
+        <v>108830.7416129268</v>
       </c>
     </row>
     <row r="5">
@@ -4884,28 +4884,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>68.60317658605271</v>
+        <v>87.98787959478237</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.86589276354862</v>
+        <v>120.3888986128195</v>
       </c>
       <c r="AC5" t="n">
-        <v>84.90746369982647</v>
+        <v>108.8991510961239</v>
       </c>
       <c r="AD5" t="n">
-        <v>68603.17658605271</v>
+        <v>87987.87959478237</v>
       </c>
       <c r="AE5" t="n">
-        <v>93865.89276354862</v>
+        <v>120388.8986128195</v>
       </c>
       <c r="AF5" t="n">
         <v>3.246602404843248e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.162760416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>84907.46369982646</v>
+        <v>108899.1510961239</v>
       </c>
     </row>
   </sheetData>
@@ -5181,28 +5181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.17518025269462</v>
+        <v>90.74373534207976</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.43906871395427</v>
+        <v>124.1595820260448</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.18944531391003</v>
+        <v>112.3099657765795</v>
       </c>
       <c r="AD2" t="n">
-        <v>63175.18025269463</v>
+        <v>90743.73534207976</v>
       </c>
       <c r="AE2" t="n">
-        <v>86439.06871395427</v>
+        <v>124159.5820260448</v>
       </c>
       <c r="AF2" t="n">
         <v>5.191339884245917e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.787760416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>78189.44531391002</v>
+        <v>112309.9657765795</v>
       </c>
     </row>
   </sheetData>
@@ -5478,28 +5478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.10039260397403</v>
+        <v>110.7984041470484</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.3333791744049</v>
+        <v>151.5992646345343</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.6124391269164</v>
+        <v>137.1308435887599</v>
       </c>
       <c r="AD2" t="n">
-        <v>82100.39260397403</v>
+        <v>110798.4041470484</v>
       </c>
       <c r="AE2" t="n">
-        <v>112333.3791744049</v>
+        <v>151599.2646345343</v>
       </c>
       <c r="AF2" t="n">
         <v>2.930471069567957e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.373697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>101612.4391269164</v>
+        <v>137130.8435887599</v>
       </c>
     </row>
     <row r="3">
@@ -5584,28 +5584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.73608826002298</v>
+        <v>96.39993438431652</v>
       </c>
       <c r="AB3" t="n">
-        <v>92.67950426263819</v>
+        <v>131.8986430895198</v>
       </c>
       <c r="AC3" t="n">
-        <v>83.83430245233582</v>
+        <v>119.3104217139994</v>
       </c>
       <c r="AD3" t="n">
-        <v>67736.08826002298</v>
+        <v>96399.93438431653</v>
       </c>
       <c r="AE3" t="n">
-        <v>92679.50426263819</v>
+        <v>131898.6430895198</v>
       </c>
       <c r="AF3" t="n">
         <v>3.519129531716019e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.305989583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>83834.30245233582</v>
+        <v>119310.4217139994</v>
       </c>
     </row>
     <row r="4">
@@ -5690,28 +5690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>67.04008706686368</v>
+        <v>86.1838202451259</v>
       </c>
       <c r="AB4" t="n">
-        <v>91.72720472475255</v>
+        <v>117.9205050211394</v>
       </c>
       <c r="AC4" t="n">
-        <v>82.97288904578488</v>
+        <v>106.6663375244208</v>
       </c>
       <c r="AD4" t="n">
-        <v>67040.08706686368</v>
+        <v>86183.8202451259</v>
       </c>
       <c r="AE4" t="n">
-        <v>91727.20472475255</v>
+        <v>117920.5050211394</v>
       </c>
       <c r="AF4" t="n">
         <v>3.630476418138997e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.143229166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>82972.88904578488</v>
+        <v>106666.3375244208</v>
       </c>
     </row>
   </sheetData>
@@ -5987,28 +5987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.1061854126722</v>
+        <v>125.026302324038</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.4967227872262</v>
+        <v>171.0665026108492</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.9468601212579</v>
+        <v>154.7401556950616</v>
       </c>
       <c r="AD2" t="n">
-        <v>96106.1854126722</v>
+        <v>125026.302324038</v>
       </c>
       <c r="AE2" t="n">
-        <v>131496.7227872263</v>
+        <v>171066.5026108492</v>
       </c>
       <c r="AF2" t="n">
         <v>2.513532602535811e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.01171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>118946.8601212579</v>
+        <v>154740.1556950616</v>
       </c>
     </row>
     <row r="3">
@@ -6093,28 +6093,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.86134108439491</v>
+        <v>97.71312715819913</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.21912481959409</v>
+        <v>133.6954113767215</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.22698378420735</v>
+        <v>120.9357089576512</v>
       </c>
       <c r="AD3" t="n">
-        <v>68861.34108439491</v>
+        <v>97713.12715819913</v>
       </c>
       <c r="AE3" t="n">
-        <v>94219.12481959409</v>
+        <v>133695.4113767215</v>
       </c>
       <c r="AF3" t="n">
         <v>3.299141834946562e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.345052083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>85226.98378420735</v>
+        <v>120935.7089576512</v>
       </c>
     </row>
     <row r="4">
@@ -6199,28 +6199,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>67.84544362948203</v>
+        <v>87.11447010741803</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.82912910355039</v>
+        <v>119.1938612201011</v>
       </c>
       <c r="AC4" t="n">
-        <v>83.96964730843119</v>
+        <v>107.8181663949206</v>
       </c>
       <c r="AD4" t="n">
-        <v>67845.44362948203</v>
+        <v>87114.47010741803</v>
       </c>
       <c r="AE4" t="n">
-        <v>92829.12910355038</v>
+        <v>119193.8612201011</v>
       </c>
       <c r="AF4" t="n">
         <v>3.419892332122423e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.15625</v>
       </c>
       <c r="AH4" t="n">
-        <v>83969.64730843119</v>
+        <v>107818.1663949206</v>
       </c>
     </row>
   </sheetData>
@@ -6496,28 +6496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.1202766725995</v>
+        <v>154.1042967719793</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.5126412915496</v>
+        <v>210.8522974450799</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.4798558771079</v>
+        <v>190.7288501100398</v>
       </c>
       <c r="AD2" t="n">
-        <v>115120.2766725995</v>
+        <v>154104.2967719793</v>
       </c>
       <c r="AE2" t="n">
-        <v>157512.6412915495</v>
+        <v>210852.2974450799</v>
       </c>
       <c r="AF2" t="n">
         <v>1.951026551167698e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.209635416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>142479.8558771079</v>
+        <v>190728.8501100398</v>
       </c>
     </row>
     <row r="3">
@@ -6602,28 +6602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.43119123642717</v>
+        <v>112.4142003059498</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.4717954051614</v>
+        <v>153.8100682230377</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.88290826476845</v>
+        <v>139.1306511856596</v>
       </c>
       <c r="AD3" t="n">
-        <v>73431.19123642717</v>
+        <v>112414.2003059498</v>
       </c>
       <c r="AE3" t="n">
-        <v>100471.7954051615</v>
+        <v>153810.0682230377</v>
       </c>
       <c r="AF3" t="n">
         <v>2.695631926067128e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.944010416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>90882.90826476844</v>
+        <v>139130.6511856596</v>
       </c>
     </row>
     <row r="4">
@@ -6708,28 +6708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>70.45017275279596</v>
+        <v>99.63719245662392</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.39303440260551</v>
+        <v>136.3280024017951</v>
       </c>
       <c r="AC4" t="n">
-        <v>87.19341848771812</v>
+        <v>123.3170491901574</v>
       </c>
       <c r="AD4" t="n">
-        <v>70450.17275279596</v>
+        <v>99637.19245662392</v>
       </c>
       <c r="AE4" t="n">
-        <v>96393.03440260551</v>
+        <v>136328.0024017952</v>
       </c>
       <c r="AF4" t="n">
         <v>2.984254496023021e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.37109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>87193.41848771813</v>
+        <v>123317.0491901574</v>
       </c>
     </row>
     <row r="5">
@@ -6814,28 +6814,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>69.55478087818402</v>
+        <v>89.04729644280253</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.16791973786047</v>
+        <v>121.8384394824527</v>
       </c>
       <c r="AC5" t="n">
-        <v>86.08522704711673</v>
+        <v>110.2103498196031</v>
       </c>
       <c r="AD5" t="n">
-        <v>69554.78087818401</v>
+        <v>89047.29644280253</v>
       </c>
       <c r="AE5" t="n">
-        <v>95167.91973786047</v>
+        <v>121838.4394824527</v>
       </c>
       <c r="AF5" t="n">
         <v>3.056933139246331e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.240885416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>86085.22704711673</v>
+        <v>110210.3498196031</v>
       </c>
     </row>
   </sheetData>
@@ -7111,28 +7111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.26954657250353</v>
+        <v>97.82877254012135</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.77764957717916</v>
+        <v>133.8536424901816</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.73220372282312</v>
+        <v>121.0788387157215</v>
       </c>
       <c r="AD2" t="n">
-        <v>69269.54657250353</v>
+        <v>97828.77254012135</v>
       </c>
       <c r="AE2" t="n">
-        <v>94777.64957717917</v>
+        <v>133853.6424901815</v>
       </c>
       <c r="AF2" t="n">
         <v>3.384282548529319e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.904947916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>85732.20372282312</v>
+        <v>121078.8387157215</v>
       </c>
     </row>
     <row r="3">
@@ -7217,28 +7217,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.11143336731789</v>
+        <v>85.11776295680615</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.45657976372487</v>
+        <v>116.4618784081328</v>
       </c>
       <c r="AC3" t="n">
-        <v>81.82353074770394</v>
+        <v>105.3469201881637</v>
       </c>
       <c r="AD3" t="n">
-        <v>66111.43336731789</v>
+        <v>85117.76295680615</v>
       </c>
       <c r="AE3" t="n">
-        <v>90456.57976372488</v>
+        <v>116461.8784081328</v>
       </c>
       <c r="AF3" t="n">
         <v>3.894927188697345e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.130208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>81823.53074770395</v>
+        <v>105346.9201881637</v>
       </c>
     </row>
   </sheetData>
@@ -7514,28 +7514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.92453157442361</v>
+        <v>94.12733168036368</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.2008524851619</v>
+        <v>128.7891678098178</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.59220972169146</v>
+        <v>116.4977103908152</v>
       </c>
       <c r="AD2" t="n">
-        <v>65924.53157442361</v>
+        <v>94127.33168036368</v>
       </c>
       <c r="AE2" t="n">
-        <v>90200.8524851619</v>
+        <v>128789.1678098178</v>
       </c>
       <c r="AF2" t="n">
         <v>4.107938183451379e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.52734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>81592.20972169146</v>
+        <v>116497.7103908152</v>
       </c>
     </row>
     <row r="3">
@@ -7620,28 +7620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.90715267019188</v>
+        <v>83.67586501856162</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.80882978480319</v>
+        <v>114.4890100369801</v>
       </c>
       <c r="AC3" t="n">
-        <v>80.33303971413842</v>
+        <v>103.5623396054151</v>
       </c>
       <c r="AD3" t="n">
-        <v>64907.15267019188</v>
+        <v>83675.86501856163</v>
       </c>
       <c r="AE3" t="n">
-        <v>88808.82978480319</v>
+        <v>114489.0100369801</v>
       </c>
       <c r="AF3" t="n">
         <v>4.341372703103457e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.234374999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>80333.03971413842</v>
+        <v>103562.3396054151</v>
       </c>
     </row>
   </sheetData>
@@ -12946,28 +12946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.24567750914682</v>
+        <v>92.06209453561812</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.90377028723728</v>
+        <v>125.9634192365459</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.51435782476091</v>
+        <v>113.9416472954124</v>
       </c>
       <c r="AD2" t="n">
-        <v>64245.67750914682</v>
+        <v>92062.09453561812</v>
       </c>
       <c r="AE2" t="n">
-        <v>87903.77028723728</v>
+        <v>125963.4192365459</v>
       </c>
       <c r="AF2" t="n">
         <v>4.648966129832616e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.48828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>79514.35782476091</v>
+        <v>113941.6472954124</v>
       </c>
     </row>
   </sheetData>
@@ -13243,28 +13243,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.16576432271336</v>
+        <v>99.45159087157541</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.74038247512371</v>
+        <v>136.0740541249679</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.31673895471963</v>
+        <v>123.0873373804518</v>
       </c>
       <c r="AD2" t="n">
-        <v>72165.76432271335</v>
+        <v>99451.5908715754</v>
       </c>
       <c r="AE2" t="n">
-        <v>98740.38247512371</v>
+        <v>136074.0541249679</v>
       </c>
       <c r="AF2" t="n">
         <v>5.381388493993398e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.26953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>89316.73895471962</v>
+        <v>123087.3373804518</v>
       </c>
     </row>
   </sheetData>
@@ -13540,28 +13540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.31551542871273</v>
+        <v>122.7630907788002</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.3642079475329</v>
+        <v>167.9698767288097</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.354009855733</v>
+        <v>151.9390674410613</v>
       </c>
       <c r="AD2" t="n">
-        <v>84315.51542871272</v>
+        <v>122763.0907788002</v>
       </c>
       <c r="AE2" t="n">
-        <v>115364.2079475329</v>
+        <v>167969.8767288097</v>
       </c>
       <c r="AF2" t="n">
         <v>2.696987214364476e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.71875</v>
       </c>
       <c r="AH2" t="n">
-        <v>104354.0098557329</v>
+        <v>151939.0674410613</v>
       </c>
     </row>
     <row r="3">
@@ -13646,28 +13646,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.0564896562931</v>
+        <v>87.26420565180361</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.11789158812672</v>
+        <v>119.3987359977954</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.23085070676035</v>
+        <v>108.0034882113753</v>
       </c>
       <c r="AD3" t="n">
-        <v>68056.4896562931</v>
+        <v>87264.20565180361</v>
       </c>
       <c r="AE3" t="n">
-        <v>93117.89158812673</v>
+        <v>119398.7359977954</v>
       </c>
       <c r="AF3" t="n">
         <v>3.437286973776481e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.2734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>84230.85070676035</v>
+        <v>108003.4882113753</v>
       </c>
     </row>
     <row r="4">
@@ -13752,28 +13752,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>67.50618676014874</v>
+        <v>86.71390275565923</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.36494288797203</v>
+        <v>118.6457872976407</v>
       </c>
       <c r="AC4" t="n">
-        <v>83.54976237377804</v>
+        <v>107.322399878393</v>
       </c>
       <c r="AD4" t="n">
-        <v>67506.18676014873</v>
+        <v>86713.90275565923</v>
       </c>
       <c r="AE4" t="n">
-        <v>92364.94288797204</v>
+        <v>118645.7872976407</v>
       </c>
       <c r="AF4" t="n">
         <v>3.515289452845125e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.15625</v>
       </c>
       <c r="AH4" t="n">
-        <v>83549.76237377804</v>
+        <v>107322.399878393</v>
       </c>
     </row>
   </sheetData>
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.756455218377</v>
+        <v>141.7017703902161</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.5959153245844</v>
+        <v>193.8826136887127</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.1776384936504</v>
+        <v>175.3787291542742</v>
       </c>
       <c r="AD2" t="n">
-        <v>102756.455218377</v>
+        <v>141701.7703902161</v>
       </c>
       <c r="AE2" t="n">
-        <v>140595.9153245844</v>
+        <v>193882.6136887127</v>
       </c>
       <c r="AF2" t="n">
         <v>2.073255215761636e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.897135416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>127177.6384936504</v>
+        <v>175378.7291542742</v>
       </c>
     </row>
     <row r="3">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.35947462818029</v>
+        <v>101.5684610070597</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.00542546095899</v>
+        <v>138.9704492340553</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.55648660997706</v>
+        <v>125.7073046054449</v>
       </c>
       <c r="AD3" t="n">
-        <v>72359.47462818029</v>
+        <v>101568.4610070597</v>
       </c>
       <c r="AE3" t="n">
-        <v>99005.42546095898</v>
+        <v>138970.4492340552</v>
       </c>
       <c r="AF3" t="n">
         <v>2.815085205303457e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.8203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>89556.48660997706</v>
+        <v>125707.3046054449</v>
       </c>
     </row>
     <row r="4">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>69.51507137744683</v>
+        <v>88.9545745744428</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.11358744709234</v>
+        <v>121.7115733315629</v>
       </c>
       <c r="AC4" t="n">
-        <v>86.03608015392366</v>
+        <v>110.0955915960964</v>
       </c>
       <c r="AD4" t="n">
-        <v>69515.07137744683</v>
+        <v>88954.5745744428</v>
       </c>
       <c r="AE4" t="n">
-        <v>95113.58744709234</v>
+        <v>121711.5733315629</v>
       </c>
       <c r="AF4" t="n">
         <v>3.112108992781325e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.260416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>86036.08015392366</v>
+        <v>110095.5915960964</v>
       </c>
     </row>
     <row r="5">
@@ -14367,28 +14367,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>69.20315215519699</v>
+        <v>88.64265535219296</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.68680580630543</v>
+        <v>121.2847916907759</v>
       </c>
       <c r="AC5" t="n">
-        <v>85.65002995394153</v>
+        <v>109.7095413961142</v>
       </c>
       <c r="AD5" t="n">
-        <v>69203.15215519699</v>
+        <v>88642.65535219296</v>
       </c>
       <c r="AE5" t="n">
-        <v>94686.80580630543</v>
+        <v>121284.7916907759</v>
       </c>
       <c r="AF5" t="n">
         <v>3.132333173432765e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.227864583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>85650.02995394153</v>
+        <v>109709.5413961142</v>
       </c>
     </row>
   </sheetData>
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.15320776580569</v>
+        <v>117.1703999702686</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.0373990919778</v>
+        <v>160.3177104324756</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.4401455646363</v>
+        <v>145.017213156164</v>
       </c>
       <c r="AD2" t="n">
-        <v>81153.2077658057</v>
+        <v>117170.3999702686</v>
       </c>
       <c r="AE2" t="n">
-        <v>111037.3990919778</v>
+        <v>160317.7104324756</v>
       </c>
       <c r="AF2" t="n">
         <v>5.470446722276822e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>100440.1455646363</v>
+        <v>145017.213156164</v>
       </c>
     </row>
   </sheetData>
@@ -14961,28 +14961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.43423108510842</v>
+        <v>95.76355466665161</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.2664899589216</v>
+        <v>131.0279202847194</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.46070565409659</v>
+        <v>118.5227994716217</v>
       </c>
       <c r="AD2" t="n">
-        <v>67434.23108510842</v>
+        <v>95763.55466665162</v>
       </c>
       <c r="AE2" t="n">
-        <v>92266.48995892159</v>
+        <v>131027.9202847194</v>
       </c>
       <c r="AF2" t="n">
         <v>3.771049925190604e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.7421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>83460.70565409659</v>
+        <v>118522.7994716217</v>
       </c>
     </row>
     <row r="3">
@@ -15067,28 +15067,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.45391299844029</v>
+        <v>84.30697433054547</v>
       </c>
       <c r="AB3" t="n">
-        <v>89.55693138727558</v>
+        <v>115.3525216402138</v>
       </c>
       <c r="AC3" t="n">
-        <v>81.00974354963829</v>
+        <v>104.3434388731826</v>
       </c>
       <c r="AD3" t="n">
-        <v>65453.91299844029</v>
+        <v>84306.97433054548</v>
       </c>
       <c r="AE3" t="n">
-        <v>89556.93138727559</v>
+        <v>115352.5216402138</v>
       </c>
       <c r="AF3" t="n">
         <v>4.136244587994461e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.234374999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>81009.74354963828</v>
+        <v>104343.4388731826</v>
       </c>
     </row>
   </sheetData>
@@ -15364,28 +15364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.27261342527424</v>
+        <v>108.870137464936</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.8325310661828</v>
+        <v>148.9609250909473</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.35026845217985</v>
+        <v>134.7443034682793</v>
       </c>
       <c r="AD2" t="n">
-        <v>80272.61342527425</v>
+        <v>108870.137464936</v>
       </c>
       <c r="AE2" t="n">
-        <v>109832.5310661828</v>
+        <v>148960.9250909473</v>
       </c>
       <c r="AF2" t="n">
         <v>3.164411658993681e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.09375</v>
       </c>
       <c r="AH2" t="n">
-        <v>99350.26845217985</v>
+        <v>134744.3034682793</v>
       </c>
     </row>
     <row r="3">
@@ -15470,28 +15470,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.85505009674523</v>
+        <v>85.93179160606572</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.47402897898161</v>
+        <v>117.5756683184586</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.74387603785584</v>
+        <v>106.3544115526624</v>
       </c>
       <c r="AD3" t="n">
-        <v>66855.05009674522</v>
+        <v>85931.79160606572</v>
       </c>
       <c r="AE3" t="n">
-        <v>91474.0289789816</v>
+        <v>117575.6683184586</v>
       </c>
       <c r="AF3" t="n">
         <v>3.694030468751205e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.221354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>82743.87603785584</v>
+        <v>106354.4115526624</v>
       </c>
     </row>
     <row r="4">
@@ -15576,28 +15576,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>66.71174420367062</v>
+        <v>85.7884857129911</v>
       </c>
       <c r="AB4" t="n">
-        <v>91.27795153386722</v>
+        <v>117.3795908733442</v>
       </c>
       <c r="AC4" t="n">
-        <v>82.56651194890669</v>
+        <v>106.1770474637132</v>
       </c>
       <c r="AD4" t="n">
-        <v>66711.74420367062</v>
+        <v>85788.48571299111</v>
       </c>
       <c r="AE4" t="n">
-        <v>91277.95153386722</v>
+        <v>117379.5908733442</v>
       </c>
       <c r="AF4" t="n">
         <v>3.730853165950477e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.169270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>82566.5119489067</v>
+        <v>106177.0474637132</v>
       </c>
     </row>
   </sheetData>
